--- a/data/trans_bre/P24_5_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P24_5_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -641,47 +673,67 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,34</t>
+          <t>7,68</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,29</t>
+          <t>13,03</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,94</t>
+          <t>10,24</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,04</t>
+          <t>14,29</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>15,05</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>17,77</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>119,44%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>76,76%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>157,97%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>119,77%</t>
+          <t>82,11%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>111,6%</t>
+          <t>147,73%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>123,57%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>189,08%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>111,62%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>145,03%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,8; 13,85</t>
+          <t>7,09; 13,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,41; 11,56</t>
+          <t>3,51; 10,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,53; 16,77</t>
+          <t>9,37; 16,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,61; 13,65</t>
+          <t>6,89; 13,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,83; 19,59</t>
+          <t>9,63; 18,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>63,98; 193,35</t>
+          <t>11,15; 19,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,45; 149,06</t>
+          <t>13,42; 21,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>90,91; 254,35</t>
+          <t>66,09; 201,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>68,35; 211,18</t>
+          <t>28,67; 140,56</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>67,96; 165,07</t>
+          <t>80,96; 237,42</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>68,35; 208,55</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>93,99; 336,73</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>68,6; 166,3</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>89,99; 210,34</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,8</t>
+          <t>10,79</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,11</t>
+          <t>15,65</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,75</t>
+          <t>10,23</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,99</t>
+          <t>18,17</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>14,6</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>15,22</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>134,9%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>329,67%</t>
+          <t>21,08</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>97,89%</t>
+          <t>134,8%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>221,23%</t>
+          <t>324,1%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>141,53%</t>
+          <t>103,82%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>223,89%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>168,48%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>141,55%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>209,95%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,26; 15,17</t>
+          <t>6,08; 15,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,74; 19,6</t>
+          <t>11,08; 20,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,38; 13,63</t>
+          <t>6,14; 14,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,72; 22,96</t>
+          <t>13,85; 23,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,23; 23,7</t>
+          <t>9,78; 19,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>51,03; 243,45</t>
+          <t>7,8; 22,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>122,93; 593,49</t>
+          <t>13,82; 28,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>42,22; 160,56</t>
+          <t>52,47; 245,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>126,23; 355,06</t>
+          <t>135,73; 637,66</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>52,72; 288,66</t>
+          <t>50,38; 180,55</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>135,92; 372,87</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>85,74; 289,37</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>51,3; 290,06</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>106,51; 389,95</t>
         </is>
       </c>
     </row>
@@ -876,50 +988,70 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,26</t>
+          <t>12,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,18</t>
+          <t>12,13</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,65</t>
+          <t>14,52</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20,82</t>
+          <t>20,76</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>15,1</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>99,65%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>417,05%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>180,48%</t>
+          <t>99,42%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>926,47%</t>
+          <t>263,77%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>182,42%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>930,56%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>218,92%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -934,50 +1066,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 21,56</t>
+          <t>-1,24; 20,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,77; 26,88</t>
+          <t>4,54; 19,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,64; 23,17</t>
+          <t>6,8; 23,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,07; 28,3</t>
+          <t>13,96; 28,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>5,78; 23,98</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-18,54; 345,61</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>103,66; 1501,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>51,64; 447,69</t>
+          <t>-14,03; 272,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>213,94; 4116,77</t>
+          <t>30,36; 942,64</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>51,04; 535,69</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>225,35; 4147,91</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>47,58; 653,77</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,71</t>
+          <t>10,7</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,46</t>
+          <t>11,36</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,07</t>
+          <t>12,12</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,31</t>
+          <t>14,52</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>14,49</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>15,15</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>121,17%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>166,48%</t>
+          <t>18,55</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>134,09%</t>
+          <t>121,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>190,85%</t>
+          <t>163,01%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>118,08%</t>
+          <t>132,75%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>194,06%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>182,84%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>118,1%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>158,35%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,91 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,88; 13,33</t>
+          <t>7,76; 13,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,8; 14,34</t>
+          <t>8,63; 13,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,53; 14,74</t>
+          <t>9,47; 14,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,58; 17,1</t>
+          <t>12,1; 17,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,16; 18,65</t>
+          <t>11,49; 17,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>72,53; 175,14</t>
+          <t>11,41; 18,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>100,62; 243,09</t>
+          <t>15,11; 21,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>92,16; 188,93</t>
+          <t>72,93; 185,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>132,65; 273,8</t>
+          <t>101,93; 238,66</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>75,56; 165,42</t>
+          <t>90,44; 183,26</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>141,23; 271,59</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>118,55; 261,31</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>75,22; 165,96</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>109,43; 222,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P24_5_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P24_5_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -666,479 +675,307 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>10,33</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7,68</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>13,03</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>10,24</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>14,29</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>15,05</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>17,77</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>119,44%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>82,11%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>147,73%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>123,57%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>189,08%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>111,62%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>145,03%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>10.32706595506856</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>7.78074138567623</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>12.85841136367201</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>10.1949669122186</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>14.16970053523479</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>15.04522413335742</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>17.73715889267435</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.194350342989007</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.8292281980370768</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>1.467192123385251</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>1.232102985396154</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>1.847762473226806</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>1.116238382410343</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>1.45396499406545</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>7,09; 13,89</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>3,51; 10,97</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>9,37; 16,67</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>6,89; 13,81</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>9,63; 18,53</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>11,15; 19,44</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>13,42; 21,84</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>66,09; 201,57</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>28,67; 140,56</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>80,96; 237,42</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>68,35; 208,55</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>93,99; 336,73</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>68,6; 166,3</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>89,99; 210,34</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>7.088152707120948</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>3.33902030087371</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>9.218352424504854</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>6.831393140590015</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>9.375344098545977</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>11.15081461345988</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>13.32176771331962</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.6609022815287355</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.2712198760939462</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.784721823632241</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>0.695845411849181</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.9230840245893885</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>0.6860368084300524</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>0.9117026376037216</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>13.88530699379261</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>11.11135981554289</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>16.49318958799034</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>13.70490737784476</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>18.40611282912409</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>19.44184870707352</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>21.66408760532385</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.015718534040529</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.435965221823198</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>2.38318540707246</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>2.145044677006612</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>3.293201808333269</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>1.66297394037074</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>2.108559321023137</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>10,79</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>15,65</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>10,23</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>18,17</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>14,6</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>15,22</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>21,08</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>134,8%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>324,1%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>103,82%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>223,89%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>168,48%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>141,55%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>209,95%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>6,08; 15,4</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>11,08; 20,39</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>6,14; 14,5</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>13,85; 23,36</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>9,78; 19,56</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>7,8; 22,99</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>13,82; 28,3</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>52,47; 245,24</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>135,73; 637,66</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>50,38; 180,55</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>135,92; 372,87</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>85,74; 289,37</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>51,3; 290,06</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>106,51; 389,95</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>10.79255329338779</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>15.26157796280894</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>9.732173372064921</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>18.09434607030943</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>14.62520436257594</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>15.21658288380275</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>20.9657727099755</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.348027423102265</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>3.227044440782099</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.964765613835904</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>2.253058876966571</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>1.665318729391315</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>1.415471874866825</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>2.063669772335346</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>12,25</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>12,13</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>14,52</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>20,76</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>15,1</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>99,42%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>263,77%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>182,42%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>930,56%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>218,92%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>6.084472904742659</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>10.74579558064876</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>5.624706796654453</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>13.72275083686895</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>9.826759494509131</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>7.798675651322079</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>13.68610870354938</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.5246885519799016</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>1.311697546778837</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.4405467408002556</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>1.348948477642192</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.8239004808972036</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>0.513038381346451</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>1.038590879242992</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,24; 20,23</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>4,54; 19,65</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>6,8; 23,35</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>13,96; 28,23</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>5,78; 23,98</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-14,03; 272,05</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>30,36; 942,64</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>51,04; 535,69</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>225,35; 4147,91</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>47,58; 653,77</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>15.39880920658967</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>20.05968616947493</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>13.91663274236173</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>23.11580731736762</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>19.65364714251366</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>22.99209347320016</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>28.23533186618055</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.452356034993735</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>6.281941770874951</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.67082761349683</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>3.683658415952519</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>2.806469535282629</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>2.900634021152103</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>3.806417133514044</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1146,157 +983,281 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>10,7</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>11,36</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>12,12</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>14,52</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>14,49</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>15,15</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>18,55</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>121,1%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>163,01%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>132,75%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>194,06%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>182,84%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>118,1%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>158,35%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>12.24558018406722</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>14.30893158364689</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>15.13318060517433</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>20.8412142926413</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>15.82470155300405</v>
+      </c>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="6" t="n">
+        <v>0.9942482404324328</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>3.676987845348895</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>1.869948019037792</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>9.295605735936197</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>2.259449083129568</v>
+      </c>
+      <c r="O10" s="6" t="inlineStr"/>
+      <c r="P10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>7,76; 13,77</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>8,63; 13,91</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>9,47; 14,63</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>12,1; 17,1</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>11,49; 17,41</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>11,41; 18,6</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>15,11; 21,98</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>72,93; 185,2</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>101,93; 238,66</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>90,44; 183,26</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>141,23; 271,59</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>118,55; 261,31</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>75,22; 165,96</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>109,43; 222,46</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.241340532734641</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>6.387805328113543</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>6.905855851743113</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>13.86137657155922</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>5.969458941514692</v>
+      </c>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.1402624472715029</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>0.6901735583436477</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>0.5180109000147645</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>2.155530388966412</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>0.5335302657759544</v>
+      </c>
+      <c r="O11" s="6" t="inlineStr"/>
+      <c r="P11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>20.23283039298109</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>22.17472979862587</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>24.00647006852387</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>28.17743027326864</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>24.87296649048544</v>
+      </c>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>2.720465334959045</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>13.84880132697805</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>5.336702319685078</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>42.39147513492912</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>6.773309275461322</v>
+      </c>
+      <c r="O12" s="6" t="inlineStr"/>
+      <c r="P12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>10.70356245856291</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>11.51692929515874</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>11.90353434824426</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>14.47861123203818</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>14.51883553994522</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>15.14616955688164</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>18.49522672453354</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.210950070540946</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>1.679996665382848</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>1.29191349415482</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>1.945288350591456</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>1.80658084633113</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>1.180978583697713</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>1.580346421672674</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>7.759896188834301</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>8.65189494797646</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>9.224699187484273</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>12.09789090995955</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>11.45771113370949</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>11.40721038818786</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>15.0227745118921</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.7293137049355509</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>1.020380580311453</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.8782015052736983</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>1.39827355188307</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>1.173165111425662</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>0.7521720040052886</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>1.10259452590448</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>13.77000787493076</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>14.11485217546465</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>14.39197499433849</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>17.07613157517864</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>17.37081453728576</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>18.60158255227865</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>21.87319339153321</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.851958023691853</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>2.465422051825708</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.799502661961489</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>2.709005487207651</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>2.613125657228296</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>1.659569801650135</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>2.225531863286433</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1305,12 +1266,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
